--- a/data/Lakes/LakeKoputara_4fb59b52cf.xlsx
+++ b/data/Lakes/LakeKoputara_4fb59b52cf.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -659,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -725,7 +725,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -760,7 +760,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -958,7 +958,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3535,7 +3535,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3800,7 +3800,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3835,7 +3835,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4443,7 +4443,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4794,7 +4794,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5675,7 +5675,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -5981,7 +5981,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6059,7 +6059,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6127,7 +6127,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6209,7 +6209,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6474,7 +6474,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6593,7 +6593,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6634,7 +6634,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6671,7 +6671,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6821,7 +6821,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7283,7 +7283,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7698,7 +7698,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7739,7 +7739,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7858,7 +7858,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -7895,7 +7895,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8269,7 +8269,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8429,7 +8429,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8507,7 +8507,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8575,7 +8575,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8881,7 +8881,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -8963,7 +8963,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9082,7 +9082,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9269,7 +9269,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9347,7 +9347,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9493,7 +9493,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9575,7 +9575,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9653,7 +9653,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -9799,7 +9799,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9840,7 +9840,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10000,7 +10000,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10146,7 +10146,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10187,7 +10187,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10265,7 +10265,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10306,7 +10306,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">

--- a/data/Lakes/LakeKoputara_4fb59b52cf.xlsx
+++ b/data/Lakes/LakeKoputara_4fb59b52cf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="354">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>82.900</t>
   </si>
   <si>
-    <t>85</t>
+    <t>85.2</t>
   </si>
   <si>
     <t>3.113</t>
@@ -88,7 +88,7 @@
     <t>142.000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>&lt;0.0020</t>
@@ -103,7 +103,7 @@
     <t>175.000</t>
   </si>
   <si>
-    <t>92</t>
+    <t>92.0</t>
   </si>
   <si>
     <t>7.430</t>
@@ -118,7 +118,7 @@
     <t>&lt;2.000</t>
   </si>
   <si>
-    <t>48</t>
+    <t>48.0</t>
   </si>
   <si>
     <t>0.5340</t>
@@ -136,7 +136,7 @@
     <t>&lt;1.900</t>
   </si>
   <si>
-    <t>21</t>
+    <t>21.0</t>
   </si>
   <si>
     <t>0.1830</t>
@@ -154,7 +154,7 @@
     <t>24.000</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>1.670</t>
@@ -169,7 +169,7 @@
     <t>9.200</t>
   </si>
   <si>
-    <t>38</t>
+    <t>38.0</t>
   </si>
   <si>
     <t>0.0030</t>
@@ -184,7 +184,7 @@
     <t>0.0900</t>
   </si>
   <si>
-    <t>44</t>
+    <t>44.0</t>
   </si>
   <si>
     <t>0.6250</t>
@@ -202,7 +202,7 @@
     <t>3.400</t>
   </si>
   <si>
-    <t>39</t>
+    <t>39.0</t>
   </si>
   <si>
     <t>0.4790</t>
@@ -217,7 +217,7 @@
     <t>20.000</t>
   </si>
   <si>
-    <t>53</t>
+    <t>53.0</t>
   </si>
   <si>
     <t>1.710</t>
@@ -229,7 +229,7 @@
     <t>32.000</t>
   </si>
   <si>
-    <t>120</t>
+    <t>120.0</t>
   </si>
   <si>
     <t>2.3800</t>
@@ -298,7 +298,7 @@
     <t>2.600</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.0</t>
   </si>
   <si>
     <t>0.8350</t>
@@ -337,7 +337,7 @@
     <t>394.000</t>
   </si>
   <si>
-    <t>58</t>
+    <t>58.0</t>
   </si>
   <si>
     <t>8.610</t>
@@ -355,7 +355,7 @@
     <t>4.100</t>
   </si>
   <si>
-    <t>140</t>
+    <t>140.0</t>
   </si>
   <si>
     <t>7.930</t>
@@ -373,7 +373,7 @@
     <t>0.0690</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>1.270</t>
@@ -388,7 +388,7 @@
     <t>109.000</t>
   </si>
   <si>
-    <t>130</t>
+    <t>130.0</t>
   </si>
   <si>
     <t>8.790</t>
@@ -409,7 +409,7 @@
     <t>11.000</t>
   </si>
   <si>
-    <t>110</t>
+    <t>110.0</t>
   </si>
   <si>
     <t>7.990</t>
@@ -433,7 +433,7 @@
     <t>56.000</t>
   </si>
   <si>
-    <t>150</t>
+    <t>150.0</t>
   </si>
   <si>
     <t>8.070</t>
@@ -475,7 +475,7 @@
     <t>15.000</t>
   </si>
   <si>
-    <t>210</t>
+    <t>210.0</t>
   </si>
   <si>
     <t>8.480</t>
@@ -496,7 +496,7 @@
     <t>0.0070</t>
   </si>
   <si>
-    <t>230</t>
+    <t>230.0</t>
   </si>
   <si>
     <t>8.580</t>
@@ -532,6 +532,9 @@
     <t>80.000</t>
   </si>
   <si>
+    <t>24.8</t>
+  </si>
+  <si>
     <t>7.810</t>
   </si>
   <si>
@@ -544,7 +547,7 @@
     <t>66.000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.4</t>
   </si>
   <si>
     <t>8.030</t>
@@ -562,7 +565,7 @@
     <t>83.000</t>
   </si>
   <si>
-    <t>212</t>
+    <t>212.0</t>
   </si>
   <si>
     <t>8.050</t>
@@ -583,6 +586,9 @@
     <t>47.000</t>
   </si>
   <si>
+    <t>58.4</t>
+  </si>
+  <si>
     <t>2.430</t>
   </si>
   <si>
@@ -598,7 +604,7 @@
     <t>101.000</t>
   </si>
   <si>
-    <t>54</t>
+    <t>53.6</t>
   </si>
   <si>
     <t>7.970</t>
@@ -616,7 +622,7 @@
     <t>7.000</t>
   </si>
   <si>
-    <t>1549</t>
+    <t>1549.2</t>
   </si>
   <si>
     <t>7.240</t>
@@ -637,7 +643,7 @@
     <t>8.200</t>
   </si>
   <si>
-    <t>116</t>
+    <t>116.4</t>
   </si>
   <si>
     <t>7.490</t>
@@ -655,7 +661,7 @@
     <t>13.000</t>
   </si>
   <si>
-    <t>188</t>
+    <t>188.4</t>
   </si>
   <si>
     <t>7.460</t>
@@ -676,7 +682,7 @@
     <t>5.000</t>
   </si>
   <si>
-    <t>109</t>
+    <t>108.8</t>
   </si>
   <si>
     <t>7.540</t>
@@ -697,7 +703,7 @@
     <t>4.800</t>
   </si>
   <si>
-    <t>114</t>
+    <t>114.0</t>
   </si>
   <si>
     <t>7.950</t>
@@ -736,7 +742,7 @@
     <t>9.900</t>
   </si>
   <si>
-    <t>80</t>
+    <t>79.6</t>
   </si>
   <si>
     <t>8.630</t>
@@ -766,7 +772,7 @@
     <t>30.000</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>7.510</t>
@@ -787,7 +793,7 @@
     <t>78.000</t>
   </si>
   <si>
-    <t>131</t>
+    <t>131.2</t>
   </si>
   <si>
     <t>7.770</t>
@@ -808,6 +814,9 @@
     <t>10.000</t>
   </si>
   <si>
+    <t>20.8</t>
+  </si>
+  <si>
     <t>8.080</t>
   </si>
   <si>
@@ -835,7 +844,7 @@
     <t>5.300</t>
   </si>
   <si>
-    <t>163</t>
+    <t>163.2</t>
   </si>
   <si>
     <t>0.3380</t>
@@ -862,7 +871,7 @@
     <t>37.000</t>
   </si>
   <si>
-    <t>122</t>
+    <t>122.0</t>
   </si>
   <si>
     <t>8.500</t>
@@ -880,7 +889,7 @@
     <t>0.02590</t>
   </si>
   <si>
-    <t>30</t>
+    <t>29.6</t>
   </si>
   <si>
     <t>8.100</t>
@@ -892,6 +901,129 @@
     <t>0.8290</t>
   </si>
   <si>
+    <t>36.92440</t>
+  </si>
+  <si>
+    <t>1.0400</t>
+  </si>
+  <si>
+    <t>87.000</t>
+  </si>
+  <si>
+    <t>81.2</t>
+  </si>
+  <si>
+    <t>8.530</t>
+  </si>
+  <si>
+    <t>0.0330</t>
+  </si>
+  <si>
+    <t>6.750</t>
+  </si>
+  <si>
+    <t>1.780</t>
+  </si>
+  <si>
+    <t>0.02400</t>
+  </si>
+  <si>
+    <t>112.000</t>
+  </si>
+  <si>
+    <t>63.2</t>
+  </si>
+  <si>
+    <t>8.060</t>
+  </si>
+  <si>
+    <t>6.300</t>
+  </si>
+  <si>
+    <t>2.560</t>
+  </si>
+  <si>
+    <t>0.00090</t>
+  </si>
+  <si>
+    <t>0.0190</t>
+  </si>
+  <si>
+    <t>509.6</t>
+  </si>
+  <si>
+    <t>7.760</t>
+  </si>
+  <si>
+    <t>5.890</t>
+  </si>
+  <si>
+    <t>1.610</t>
+  </si>
+  <si>
+    <t>0.1310</t>
+  </si>
+  <si>
+    <t>689.2</t>
+  </si>
+  <si>
+    <t>3.430</t>
+  </si>
+  <si>
+    <t>1.250</t>
+  </si>
+  <si>
+    <t>2.400</t>
+  </si>
+  <si>
+    <t>8.010</t>
+  </si>
+  <si>
+    <t>0.6330</t>
+  </si>
+  <si>
+    <t>1.880</t>
+  </si>
+  <si>
+    <t>0.2440</t>
+  </si>
+  <si>
+    <t>6.700</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>8.320</t>
+  </si>
+  <si>
+    <t>1.1900</t>
+  </si>
+  <si>
+    <t>0.2840</t>
+  </si>
+  <si>
+    <t>0.0450</t>
+  </si>
+  <si>
+    <t>7.890</t>
+  </si>
+  <si>
+    <t>1.460</t>
+  </si>
+  <si>
+    <t>0.3340</t>
+  </si>
+  <si>
+    <t>45.700</t>
+  </si>
+  <si>
+    <t>8.900</t>
+  </si>
+  <si>
+    <t>0.6560</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -926,6 +1058,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1302,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,10 +1486,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1374,10 +1509,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1397,10 +1532,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G4" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1420,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -1440,7 +1575,7 @@
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -1460,7 +1595,7 @@
         <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -1480,10 +1615,10 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -1503,10 +1638,10 @@
         <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1526,10 +1661,10 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G10" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1549,7 +1684,7 @@
         <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1569,7 +1704,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1589,7 +1724,7 @@
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1609,10 +1744,10 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G14" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1632,10 +1767,10 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -1655,10 +1790,10 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G16" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -1678,7 +1813,7 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1698,7 +1833,7 @@
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -1718,7 +1853,7 @@
         <v>31</v>
       </c>
       <c r="F19" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -1738,10 +1873,10 @@
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G20" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -1761,10 +1896,10 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G21" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -1784,10 +1919,10 @@
         <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G22" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -1807,7 +1942,7 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1827,7 +1962,7 @@
         <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -1847,7 +1982,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H25">
         <v>200</v>
@@ -1867,10 +2002,10 @@
         <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H26">
         <v>200</v>
@@ -1890,10 +2025,10 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G27" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -1913,10 +2048,10 @@
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G28" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -1936,7 +2071,7 @@
         <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1956,7 +2091,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -1976,7 +2111,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -1996,10 +2131,10 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -2019,10 +2154,10 @@
         <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -2042,10 +2177,10 @@
         <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G34" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H34">
         <v>200</v>
@@ -2065,7 +2200,7 @@
         <v>25</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -2085,7 +2220,7 @@
         <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -2105,7 +2240,7 @@
         <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H37">
         <v>200</v>
@@ -2125,10 +2260,10 @@
         <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -2148,10 +2283,10 @@
         <v>50</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -2171,10 +2306,10 @@
         <v>51</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H40">
         <v>200</v>
@@ -2194,7 +2329,7 @@
         <v>52</v>
       </c>
       <c r="G41" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2214,7 +2349,7 @@
         <v>53</v>
       </c>
       <c r="F42" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H42">
         <v>200</v>
@@ -2234,7 +2369,7 @@
         <v>54</v>
       </c>
       <c r="F43" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H43">
         <v>200</v>
@@ -2254,10 +2389,10 @@
         <v>55</v>
       </c>
       <c r="F44" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H44">
         <v>200</v>
@@ -2277,10 +2412,10 @@
         <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G45" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -2300,10 +2435,10 @@
         <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H46">
         <v>200</v>
@@ -2323,7 +2458,7 @@
         <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2343,7 +2478,7 @@
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H48">
         <v>200</v>
@@ -2363,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H49">
         <v>200</v>
@@ -2383,10 +2518,10 @@
         <v>60</v>
       </c>
       <c r="F50" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G50" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H50">
         <v>200</v>
@@ -2406,10 +2541,10 @@
         <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G51" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H51">
         <v>200</v>
@@ -2429,10 +2564,10 @@
         <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G52" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H52">
         <v>200</v>
@@ -2452,7 +2587,7 @@
         <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2472,7 +2607,7 @@
         <v>64</v>
       </c>
       <c r="F54" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H54">
         <v>200</v>
@@ -2492,7 +2627,7 @@
         <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H55">
         <v>200</v>
@@ -2512,10 +2647,10 @@
         <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G56" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H56">
         <v>200</v>
@@ -2535,10 +2670,10 @@
         <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G57" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H57">
         <v>200</v>
@@ -2558,10 +2693,10 @@
         <v>67</v>
       </c>
       <c r="F58" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G58" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H58">
         <v>200</v>
@@ -2581,7 +2716,7 @@
         <v>25</v>
       </c>
       <c r="G59" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2601,7 +2736,7 @@
         <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H60">
         <v>200</v>
@@ -2621,7 +2756,7 @@
         <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H61">
         <v>200</v>
@@ -2641,10 +2776,10 @@
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G62" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H62">
         <v>200</v>
@@ -2664,10 +2799,10 @@
         <v>70</v>
       </c>
       <c r="F63" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G63" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H63">
         <v>200</v>
@@ -2687,10 +2822,10 @@
         <v>71</v>
       </c>
       <c r="F64" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G64" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H64">
         <v>200</v>
@@ -2710,7 +2845,7 @@
         <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2730,7 +2865,7 @@
         <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H66">
         <v>200</v>
@@ -2750,7 +2885,7 @@
         <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H67">
         <v>200</v>
@@ -2770,13 +2905,13 @@
         <v>75</v>
       </c>
       <c r="E68" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G68" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H68">
         <v>200</v>
@@ -2796,13 +2931,13 @@
         <v>76</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F69" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G69" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H69">
         <v>200</v>
@@ -2822,13 +2957,13 @@
         <v>46</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F70" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G70" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H70">
         <v>200</v>
@@ -2848,10 +2983,10 @@
         <v>77</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F71" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H71">
         <v>200</v>
@@ -2871,10 +3006,10 @@
         <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F72" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H72">
         <v>200</v>
@@ -2894,13 +3029,13 @@
         <v>79</v>
       </c>
       <c r="E73" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F73" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G73" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2920,13 +3055,13 @@
         <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F74" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G74" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2946,13 +3081,13 @@
         <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F75" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G75" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2972,10 +3107,10 @@
         <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F76" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -2995,10 +3130,10 @@
         <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F77" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -3018,13 +3153,13 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F78" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G78" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -3044,13 +3179,13 @@
         <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F79" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G79" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3070,13 +3205,13 @@
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F80" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G80" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -3096,10 +3231,10 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F81" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3119,10 +3254,10 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F82" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3142,13 +3277,13 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G83" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3168,13 +3303,13 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F84" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G84" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3194,13 +3329,13 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F85" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G85" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3220,10 +3355,10 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F86" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3243,10 +3378,10 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F87" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3266,13 +3401,13 @@
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F88" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G88" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3292,13 +3427,13 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F89" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G89" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3318,13 +3453,13 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F90" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G90" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3344,13 +3479,13 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F91" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G91" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3370,10 +3505,10 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F92" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3393,10 +3528,10 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F93" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3416,13 +3551,13 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G94" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3442,13 +3577,13 @@
         <v>42</v>
       </c>
       <c r="E95" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F95" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G95" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3468,13 +3603,13 @@
         <v>94</v>
       </c>
       <c r="E96" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F96" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G96" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3494,13 +3629,13 @@
         <v>99</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F97" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G97" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3520,10 +3655,10 @@
         <v>100</v>
       </c>
       <c r="E98" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F98" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3543,10 +3678,10 @@
         <v>101</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F99" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3566,13 +3701,13 @@
         <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F100" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G100" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3592,13 +3727,13 @@
         <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F101" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G101" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3618,13 +3753,13 @@
         <v>40</v>
       </c>
       <c r="E102" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F102" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G102" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3644,13 +3779,13 @@
         <v>25</v>
       </c>
       <c r="E103" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F103" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G103" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3670,10 +3805,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F104" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3693,10 +3828,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F105" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3716,7 +3851,7 @@
         <v>105</v>
       </c>
       <c r="G106" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3736,13 +3871,13 @@
         <v>22</v>
       </c>
       <c r="E107" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F107" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G107" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3765,13 +3900,13 @@
         <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F108" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G108" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H108">
         <v>500</v>
@@ -3794,13 +3929,13 @@
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F109" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G109" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3823,7 +3958,7 @@
         <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -3849,13 +3984,13 @@
         <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F111" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G111" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3878,10 +4013,10 @@
         <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F112" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3904,10 +4039,10 @@
         <v>111</v>
       </c>
       <c r="E113" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F113" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3930,13 +4065,13 @@
         <v>43</v>
       </c>
       <c r="E114" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F114" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G114" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3959,13 +4094,13 @@
         <v>112</v>
       </c>
       <c r="E115" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F115" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G115" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -3988,13 +4123,13 @@
         <v>113</v>
       </c>
       <c r="E116" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F116" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G116" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -4017,7 +4152,7 @@
         <v>114</v>
       </c>
       <c r="E117" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G117" t="s">
         <v>8</v>
@@ -4043,13 +4178,13 @@
         <v>115</v>
       </c>
       <c r="E118" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F118" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G118" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4072,10 +4207,10 @@
         <v>116</v>
       </c>
       <c r="E119" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F119" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4098,10 +4233,10 @@
         <v>117</v>
       </c>
       <c r="E120" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F120" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4124,13 +4259,13 @@
         <v>118</v>
       </c>
       <c r="E121" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F121" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G121" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -4150,13 +4285,13 @@
         <v>39</v>
       </c>
       <c r="E122" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F122" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G122" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4176,13 +4311,13 @@
         <v>119</v>
       </c>
       <c r="E123" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F123" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G123" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4202,13 +4337,13 @@
         <v>44</v>
       </c>
       <c r="E124" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F124" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G124" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4228,10 +4363,10 @@
         <v>120</v>
       </c>
       <c r="E125" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F125" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4251,10 +4386,10 @@
         <v>121</v>
       </c>
       <c r="E126" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F126" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4274,13 +4409,13 @@
         <v>122</v>
       </c>
       <c r="E127" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F127" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G127" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4303,13 +4438,13 @@
         <v>123</v>
       </c>
       <c r="E128" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F128" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G128" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4332,13 +4467,13 @@
         <v>124</v>
       </c>
       <c r="E129" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F129" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G129" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4361,7 +4496,7 @@
         <v>125</v>
       </c>
       <c r="E130" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G130" t="s">
         <v>8</v>
@@ -4387,13 +4522,13 @@
         <v>25</v>
       </c>
       <c r="E131" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F131" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G131" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4416,10 +4551,10 @@
         <v>126</v>
       </c>
       <c r="E132" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F132" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4442,10 +4577,10 @@
         <v>127</v>
       </c>
       <c r="E133" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F133" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4468,7 +4603,7 @@
         <v>128</v>
       </c>
       <c r="G134" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4488,13 +4623,13 @@
         <v>129</v>
       </c>
       <c r="E135" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F135" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G135" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4517,13 +4652,13 @@
         <v>130</v>
       </c>
       <c r="E136" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F136" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G136" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4546,13 +4681,13 @@
         <v>131</v>
       </c>
       <c r="E137" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F137" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G137" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4575,7 +4710,7 @@
         <v>132</v>
       </c>
       <c r="E138" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G138" t="s">
         <v>8</v>
@@ -4601,13 +4736,13 @@
         <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F139" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G139" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4630,10 +4765,10 @@
         <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F140" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4656,10 +4791,10 @@
         <v>135</v>
       </c>
       <c r="E141" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F141" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4682,7 +4817,7 @@
         <v>136</v>
       </c>
       <c r="G142" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4702,13 +4837,13 @@
         <v>137</v>
       </c>
       <c r="E143" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F143" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G143" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4731,13 +4866,13 @@
         <v>138</v>
       </c>
       <c r="E144" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F144" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G144" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4760,13 +4895,13 @@
         <v>139</v>
       </c>
       <c r="E145" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F145" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G145" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4789,7 +4924,7 @@
         <v>140</v>
       </c>
       <c r="E146" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G146" t="s">
         <v>8</v>
@@ -4815,13 +4950,13 @@
         <v>141</v>
       </c>
       <c r="E147" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F147" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G147" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4844,10 +4979,10 @@
         <v>142</v>
       </c>
       <c r="E148" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F148" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4870,10 +5005,10 @@
         <v>143</v>
       </c>
       <c r="E149" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F149" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4896,7 +5031,7 @@
         <v>144</v>
       </c>
       <c r="G150" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4916,13 +5051,13 @@
         <v>145</v>
       </c>
       <c r="E151" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F151" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G151" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4945,13 +5080,13 @@
         <v>146</v>
       </c>
       <c r="E152" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G152" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4974,13 +5109,13 @@
         <v>119</v>
       </c>
       <c r="E153" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F153" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G153" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -5003,7 +5138,7 @@
         <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G154" t="s">
         <v>8</v>
@@ -5029,13 +5164,13 @@
         <v>25</v>
       </c>
       <c r="E155" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G155" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -5058,10 +5193,10 @@
         <v>148</v>
       </c>
       <c r="E156" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -5084,10 +5219,10 @@
         <v>149</v>
       </c>
       <c r="E157" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F157" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5110,7 +5245,7 @@
         <v>150</v>
       </c>
       <c r="G158" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5130,13 +5265,13 @@
         <v>151</v>
       </c>
       <c r="E159" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F159" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G159" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5159,13 +5294,13 @@
         <v>152</v>
       </c>
       <c r="E160" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G160" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5188,13 +5323,13 @@
         <v>153</v>
       </c>
       <c r="E161" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F161" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G161" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5217,7 +5352,7 @@
         <v>154</v>
       </c>
       <c r="E162" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G162" t="s">
         <v>8</v>
@@ -5243,13 +5378,13 @@
         <v>155</v>
       </c>
       <c r="E163" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F163" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G163" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5272,10 +5407,10 @@
         <v>156</v>
       </c>
       <c r="E164" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F164" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5298,10 +5433,10 @@
         <v>157</v>
       </c>
       <c r="E165" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F165" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5324,7 +5459,7 @@
         <v>158</v>
       </c>
       <c r="G166" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5344,13 +5479,13 @@
         <v>159</v>
       </c>
       <c r="E167" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F167" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G167" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5373,13 +5508,13 @@
         <v>66</v>
       </c>
       <c r="E168" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F168" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G168" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5402,13 +5537,13 @@
         <v>160</v>
       </c>
       <c r="E169" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F169" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G169" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5431,7 +5566,7 @@
         <v>161</v>
       </c>
       <c r="E170" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G170" t="s">
         <v>8</v>
@@ -5457,13 +5592,13 @@
         <v>25</v>
       </c>
       <c r="E171" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F171" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G171" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5486,10 +5621,10 @@
         <v>162</v>
       </c>
       <c r="E172" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5512,10 +5647,10 @@
         <v>163</v>
       </c>
       <c r="E173" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5538,7 +5673,7 @@
         <v>136</v>
       </c>
       <c r="G174" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5558,13 +5693,13 @@
         <v>164</v>
       </c>
       <c r="E175" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F175" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="G175" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5587,13 +5722,13 @@
         <v>61</v>
       </c>
       <c r="E176" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G176" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5616,13 +5751,13 @@
         <v>119</v>
       </c>
       <c r="E177" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F177" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G177" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5645,7 +5780,7 @@
         <v>165</v>
       </c>
       <c r="E178" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G178" t="s">
         <v>8</v>
@@ -5671,13 +5806,13 @@
         <v>166</v>
       </c>
       <c r="E179" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F179" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G179" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5700,10 +5835,10 @@
         <v>167</v>
       </c>
       <c r="E180" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5726,10 +5861,10 @@
         <v>168</v>
       </c>
       <c r="E181" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5752,7 +5887,7 @@
         <v>169</v>
       </c>
       <c r="G182" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5772,13 +5907,13 @@
         <v>170</v>
       </c>
       <c r="E183" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F183" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G183" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5801,13 +5936,13 @@
         <v>171</v>
       </c>
       <c r="E184" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F184" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G184" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5827,16 +5962,16 @@
         <v>44550.49375</v>
       </c>
       <c r="D185" t="s">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c r="E185" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F185" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G185" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5856,10 +5991,10 @@
         <v>44550.49375</v>
       </c>
       <c r="D186" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E186" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G186" t="s">
         <v>8</v>
@@ -5885,13 +6020,13 @@
         <v>25</v>
       </c>
       <c r="E187" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F187" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G187" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5911,13 +6046,13 @@
         <v>44550.49375</v>
       </c>
       <c r="D188" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E188" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F188" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5940,10 +6075,10 @@
         <v>149</v>
       </c>
       <c r="E189" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F189" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5963,10 +6098,10 @@
         <v>44580</v>
       </c>
       <c r="D190" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G190" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5986,13 +6121,13 @@
         <v>164</v>
       </c>
       <c r="E191" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F191" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G191" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -6012,16 +6147,16 @@
         <v>44580.41944444444</v>
       </c>
       <c r="D192" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E192" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F192" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G192" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -6041,16 +6176,16 @@
         <v>44580.41944444444</v>
       </c>
       <c r="D193" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E193" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F193" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G193" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6070,10 +6205,10 @@
         <v>44580.41944444444</v>
       </c>
       <c r="D194" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E194" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G194" t="s">
         <v>8</v>
@@ -6099,13 +6234,13 @@
         <v>52</v>
       </c>
       <c r="E195" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F195" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G195" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -6125,13 +6260,13 @@
         <v>44580.41944444444</v>
       </c>
       <c r="D196" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E196" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F196" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -6151,13 +6286,13 @@
         <v>44580.41944444444</v>
       </c>
       <c r="D197" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E197" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F197" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6177,10 +6312,10 @@
         <v>44602</v>
       </c>
       <c r="D198" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G198" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6200,13 +6335,13 @@
         <v>122</v>
       </c>
       <c r="E199" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F199" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G199" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6226,16 +6361,16 @@
         <v>44602.41111111111</v>
       </c>
       <c r="D200" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E200" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F200" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G200" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6255,16 +6390,16 @@
         <v>44602.41111111111</v>
       </c>
       <c r="D201" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E201" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F201" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G201" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6284,10 +6419,10 @@
         <v>44602.41111111111</v>
       </c>
       <c r="D202" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E202" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G202" t="s">
         <v>8</v>
@@ -6313,13 +6448,13 @@
         <v>25</v>
       </c>
       <c r="E203" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F203" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G203" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6339,13 +6474,13 @@
         <v>44602.41111111111</v>
       </c>
       <c r="D204" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E204" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F204" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6365,13 +6500,13 @@
         <v>44602.41111111111</v>
       </c>
       <c r="D205" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E205" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F205" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6391,10 +6526,10 @@
         <v>44621</v>
       </c>
       <c r="D206" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G206" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6411,16 +6546,16 @@
         <v>44621.48611111111</v>
       </c>
       <c r="D207" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E207" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F207" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G207" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6440,16 +6575,16 @@
         <v>44621.48611111111</v>
       </c>
       <c r="D208" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E208" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F208" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G208" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6469,16 +6604,16 @@
         <v>44621.48611111111</v>
       </c>
       <c r="D209" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="E209" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F209" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G209" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6501,7 +6636,7 @@
         <v>114</v>
       </c>
       <c r="E210" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G210" t="s">
         <v>8</v>
@@ -6527,13 +6662,13 @@
         <v>25</v>
       </c>
       <c r="E211" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F211" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G211" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6553,13 +6688,13 @@
         <v>44621.48611111111</v>
       </c>
       <c r="D212" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E212" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F212" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6579,13 +6714,13 @@
         <v>44621.48611111111</v>
       </c>
       <c r="D213" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E213" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F213" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6605,10 +6740,10 @@
         <v>44656</v>
       </c>
       <c r="D214" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G214" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6625,16 +6760,16 @@
         <v>44656.45694444444</v>
       </c>
       <c r="D215" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E215" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F215" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G215" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6654,16 +6789,16 @@
         <v>44656.45694444444</v>
       </c>
       <c r="D216" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E216" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F216" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G216" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6683,16 +6818,16 @@
         <v>44656.45694444444</v>
       </c>
       <c r="D217" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E217" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F217" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G217" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6712,10 +6847,10 @@
         <v>44656.45694444444</v>
       </c>
       <c r="D218" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E218" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G218" t="s">
         <v>8</v>
@@ -6741,13 +6876,13 @@
         <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F219" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G219" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6767,13 +6902,13 @@
         <v>44656.45694444444</v>
       </c>
       <c r="D220" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E220" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F220" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6793,13 +6928,13 @@
         <v>44656.45694444444</v>
       </c>
       <c r="D221" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E221" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F221" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6822,7 +6957,7 @@
         <v>136</v>
       </c>
       <c r="G222" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6839,16 +6974,16 @@
         <v>44767.44236111111</v>
       </c>
       <c r="D223" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E223" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F223" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G223" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6868,16 +7003,16 @@
         <v>44767.44236111111</v>
       </c>
       <c r="D224" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E224" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F224" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G224" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6897,16 +7032,16 @@
         <v>44767.44236111111</v>
       </c>
       <c r="D225" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E225" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F225" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G225" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6926,10 +7061,10 @@
         <v>44767.44236111111</v>
       </c>
       <c r="D226" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E226" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G226" t="s">
         <v>8</v>
@@ -6952,16 +7087,16 @@
         <v>44767.44236111111</v>
       </c>
       <c r="D227" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E227" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F227" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G227" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6981,13 +7116,13 @@
         <v>44767.44236111111</v>
       </c>
       <c r="D228" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E228" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F228" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -7007,13 +7142,13 @@
         <v>44767.44236111111</v>
       </c>
       <c r="D229" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E229" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F229" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -7033,10 +7168,10 @@
         <v>44774.00048611111</v>
       </c>
       <c r="D230" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G230" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -7056,13 +7191,13 @@
         <v>41</v>
       </c>
       <c r="E231" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F231" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G231" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7082,16 +7217,16 @@
         <v>44774.52361111111</v>
       </c>
       <c r="D232" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E232" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F232" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G232" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7111,16 +7246,16 @@
         <v>44774.52361111111</v>
       </c>
       <c r="D233" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E233" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F233" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G233" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -7140,10 +7275,10 @@
         <v>44774.52361111111</v>
       </c>
       <c r="D234" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E234" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G234" t="s">
         <v>8</v>
@@ -7166,16 +7301,16 @@
         <v>44774.52361111111</v>
       </c>
       <c r="D235" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E235" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F235" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G235" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -7195,13 +7330,13 @@
         <v>44774.52361111111</v>
       </c>
       <c r="D236" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E236" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F236" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -7221,13 +7356,13 @@
         <v>44774.52361111111</v>
       </c>
       <c r="D237" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E237" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F237" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -7247,10 +7382,10 @@
         <v>44811.00048611111</v>
       </c>
       <c r="D238" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G238" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7267,16 +7402,16 @@
         <v>44811.43680555555</v>
       </c>
       <c r="D239" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E239" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F239" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G239" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7296,16 +7431,16 @@
         <v>44811.43680555555</v>
       </c>
       <c r="D240" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E240" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F240" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G240" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7325,16 +7460,16 @@
         <v>44811.43680555555</v>
       </c>
       <c r="D241" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E241" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F241" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G241" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7354,10 +7489,10 @@
         <v>44811.43680555555</v>
       </c>
       <c r="D242" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E242" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G242" t="s">
         <v>8</v>
@@ -7380,16 +7515,16 @@
         <v>44811.43680555555</v>
       </c>
       <c r="D243" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E243" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F243" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G243" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7409,13 +7544,13 @@
         <v>44811.43680555555</v>
       </c>
       <c r="D244" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E244" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F244" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7435,13 +7570,13 @@
         <v>44811.43680555555</v>
       </c>
       <c r="D245" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E245" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F245" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7464,7 +7599,7 @@
         <v>128</v>
       </c>
       <c r="G246" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7481,16 +7616,16 @@
         <v>44860.39097222222</v>
       </c>
       <c r="D247" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E247" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F247" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G247" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7510,16 +7645,16 @@
         <v>44860.39097222222</v>
       </c>
       <c r="D248" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E248" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F248" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G248" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7539,16 +7674,16 @@
         <v>44860.39097222222</v>
       </c>
       <c r="D249" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E249" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F249" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G249" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7568,10 +7703,10 @@
         <v>44860.39097222222</v>
       </c>
       <c r="D250" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E250" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G250" t="s">
         <v>8</v>
@@ -7594,16 +7729,16 @@
         <v>44860.39097222222</v>
       </c>
       <c r="D251" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E251" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F251" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G251" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7623,13 +7758,13 @@
         <v>44860.39097222222</v>
       </c>
       <c r="D252" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E252" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F252" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7649,13 +7784,13 @@
         <v>44860.39097222222</v>
       </c>
       <c r="D253" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E253" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F253" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7678,7 +7813,7 @@
         <v>136</v>
       </c>
       <c r="G254" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7695,16 +7830,16 @@
         <v>44886.40138888889</v>
       </c>
       <c r="D255" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E255" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F255" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G255" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7724,16 +7859,16 @@
         <v>44886.40138888889</v>
       </c>
       <c r="D256" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E256" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F256" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G256" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7753,16 +7888,16 @@
         <v>44886.40138888889</v>
       </c>
       <c r="D257" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E257" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F257" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G257" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7782,10 +7917,10 @@
         <v>44886.40138888889</v>
       </c>
       <c r="D258" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E258" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G258" t="s">
         <v>8</v>
@@ -7808,16 +7943,16 @@
         <v>44886.40138888889</v>
       </c>
       <c r="D259" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E259" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F259" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G259" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7837,13 +7972,13 @@
         <v>44886.40138888889</v>
       </c>
       <c r="D260" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E260" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F260" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7863,13 +7998,13 @@
         <v>44886.40138888889</v>
       </c>
       <c r="D261" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E261" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F261" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7889,10 +8024,10 @@
         <v>44914.00048611111</v>
       </c>
       <c r="D262" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G262" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7909,16 +8044,16 @@
         <v>44914.39444444444</v>
       </c>
       <c r="D263" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E263" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F263" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G263" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7938,16 +8073,16 @@
         <v>44914.39444444444</v>
       </c>
       <c r="D264" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E264" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F264" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G264" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7970,13 +8105,13 @@
         <v>46</v>
       </c>
       <c r="E265" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F265" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G265" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7996,10 +8131,10 @@
         <v>44914.39444444444</v>
       </c>
       <c r="D266" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E266" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G266" t="s">
         <v>8</v>
@@ -8025,13 +8160,13 @@
         <v>25</v>
       </c>
       <c r="E267" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F267" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="G267" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -8051,13 +8186,13 @@
         <v>44914.39444444444</v>
       </c>
       <c r="D268" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E268" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F268" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -8077,13 +8212,13 @@
         <v>44914.39444444444</v>
       </c>
       <c r="D269" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E269" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F269" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8103,10 +8238,10 @@
         <v>44952.00048611111</v>
       </c>
       <c r="D270" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G270" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -8123,16 +8258,16 @@
         <v>44952.37986111111</v>
       </c>
       <c r="D271" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E271" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F271" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G271" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8152,16 +8287,16 @@
         <v>44952.37986111111</v>
       </c>
       <c r="D272" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E272" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F272" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G272" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -8181,16 +8316,16 @@
         <v>44952.37986111111</v>
       </c>
       <c r="D273" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E273" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F273" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G273" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8210,10 +8345,10 @@
         <v>44952.37986111111</v>
       </c>
       <c r="D274" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E274" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G274" t="s">
         <v>8</v>
@@ -8236,16 +8371,16 @@
         <v>44952.37986111111</v>
       </c>
       <c r="D275" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E275" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F275" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G275" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8265,13 +8400,13 @@
         <v>44952.37986111111</v>
       </c>
       <c r="D276" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E276" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F276" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8294,10 +8429,10 @@
         <v>120</v>
       </c>
       <c r="E277" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F277" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8317,10 +8452,10 @@
         <v>44978.00048611111</v>
       </c>
       <c r="D278" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G278" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8340,13 +8475,13 @@
         <v>159</v>
       </c>
       <c r="E279" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F279" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G279" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8366,16 +8501,16 @@
         <v>44978.43055555555</v>
       </c>
       <c r="D280" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E280" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F280" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G280" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8395,16 +8530,16 @@
         <v>44978.43055555555</v>
       </c>
       <c r="D281" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E281" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F281" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G281" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8424,10 +8559,10 @@
         <v>44978.43055555555</v>
       </c>
       <c r="D282" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E282" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G282" t="s">
         <v>8</v>
@@ -8450,16 +8585,16 @@
         <v>44978.43055555555</v>
       </c>
       <c r="D283" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E283" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F283" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G283" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8482,10 +8617,10 @@
         <v>134</v>
       </c>
       <c r="E284" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F284" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8505,13 +8640,13 @@
         <v>44978.43055555555</v>
       </c>
       <c r="D285" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E285" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F285" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8531,10 +8666,10 @@
         <v>45008.00048611111</v>
       </c>
       <c r="D286" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G286" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8554,13 +8689,13 @@
         <v>89</v>
       </c>
       <c r="E287" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F287" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G287" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8580,16 +8715,16 @@
         <v>45008.45277777778</v>
       </c>
       <c r="D288" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E288" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F288" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G288" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8609,16 +8744,16 @@
         <v>45008.45277777778</v>
       </c>
       <c r="D289" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E289" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F289" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G289" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8638,10 +8773,10 @@
         <v>45008.45277777778</v>
       </c>
       <c r="D290" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E290" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G290" t="s">
         <v>8</v>
@@ -8664,16 +8799,16 @@
         <v>45008.45277777778</v>
       </c>
       <c r="D291" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E291" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F291" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G291" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8693,13 +8828,13 @@
         <v>45008.45277777778</v>
       </c>
       <c r="D292" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E292" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F292" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8719,13 +8854,13 @@
         <v>45008.45277777778</v>
       </c>
       <c r="D293" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E293" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F293" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8745,10 +8880,10 @@
         <v>45027.00048611111</v>
       </c>
       <c r="D294" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G294" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8768,13 +8903,13 @@
         <v>122</v>
       </c>
       <c r="E295" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F295" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G295" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8794,16 +8929,16 @@
         <v>45027.42986111111</v>
       </c>
       <c r="D296" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E296" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F296" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G296" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8823,16 +8958,16 @@
         <v>45027.42986111111</v>
       </c>
       <c r="D297" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E297" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F297" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G297" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8852,10 +8987,10 @@
         <v>45027.42986111111</v>
       </c>
       <c r="D298" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E298" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G298" t="s">
         <v>8</v>
@@ -8878,16 +9013,16 @@
         <v>45027.42986111111</v>
       </c>
       <c r="D299" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E299" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F299" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G299" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8907,13 +9042,13 @@
         <v>45027.42986111111</v>
       </c>
       <c r="D300" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E300" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F300" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -8933,13 +9068,13 @@
         <v>45027.42986111111</v>
       </c>
       <c r="D301" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E301" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F301" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8959,10 +9094,10 @@
         <v>45127.00048611111</v>
       </c>
       <c r="D302" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G302" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8979,16 +9114,16 @@
         <v>45127.50069444445</v>
       </c>
       <c r="D303" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E303" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F303" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G303" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -9008,16 +9143,16 @@
         <v>45127.50069444445</v>
       </c>
       <c r="D304" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E304" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F304" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G304" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -9037,16 +9172,16 @@
         <v>45127.50069444445</v>
       </c>
       <c r="D305" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="E305" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F305" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G305" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -9066,10 +9201,10 @@
         <v>45127.50069444445</v>
       </c>
       <c r="D306" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E306" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G306" t="s">
         <v>8</v>
@@ -9092,16 +9227,16 @@
         <v>45127.50069444445</v>
       </c>
       <c r="D307" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E307" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F307" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G307" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -9124,10 +9259,10 @@
         <v>156</v>
       </c>
       <c r="E308" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F308" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -9150,10 +9285,10 @@
         <v>32</v>
       </c>
       <c r="E309" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F309" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -9176,7 +9311,7 @@
         <v>128</v>
       </c>
       <c r="G310" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -9193,16 +9328,16 @@
         <v>45155.44236111111</v>
       </c>
       <c r="D311" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E311" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F311" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G311" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -9225,13 +9360,13 @@
         <v>42</v>
       </c>
       <c r="E312" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F312" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G312" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -9254,13 +9389,13 @@
         <v>24</v>
       </c>
       <c r="E313" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F313" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G313" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9280,10 +9415,10 @@
         <v>45155.44236111111</v>
       </c>
       <c r="D314" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E314" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G314" t="s">
         <v>8</v>
@@ -9306,16 +9441,16 @@
         <v>45155.44236111111</v>
       </c>
       <c r="D315" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E315" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F315" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G315" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9335,13 +9470,13 @@
         <v>45155.44236111111</v>
       </c>
       <c r="D316" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E316" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F316" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9361,13 +9496,13 @@
         <v>45155.44236111111</v>
       </c>
       <c r="D317" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E317" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F317" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9387,10 +9522,10 @@
         <v>45197.00048611111</v>
       </c>
       <c r="D318" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G318" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9407,16 +9542,16 @@
         <v>45197.3375</v>
       </c>
       <c r="D319" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E319" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F319" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G319" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9436,16 +9571,16 @@
         <v>45197.3375</v>
       </c>
       <c r="D320" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E320" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F320" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G320" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9465,16 +9600,16 @@
         <v>45197.3375</v>
       </c>
       <c r="D321" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E321" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F321" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G321" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H321">
         <v>600</v>
@@ -9494,10 +9629,10 @@
         <v>45197.3375</v>
       </c>
       <c r="D322" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E322" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G322" t="s">
         <v>8</v>
@@ -9520,16 +9655,16 @@
         <v>45197.3375</v>
       </c>
       <c r="D323" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E323" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F323" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G323" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H323">
         <v>600</v>
@@ -9549,13 +9684,13 @@
         <v>45197.3375</v>
       </c>
       <c r="D324" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E324" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F324" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H324">
         <v>600</v>
@@ -9578,10 +9713,10 @@
         <v>63</v>
       </c>
       <c r="E325" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F325" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H325">
         <v>600</v>
@@ -9604,7 +9739,7 @@
         <v>136</v>
       </c>
       <c r="G326" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H326">
         <v>600</v>
@@ -9621,16 +9756,16 @@
         <v>45210.47569444445</v>
       </c>
       <c r="D327" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E327" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F327" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G327" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H327">
         <v>600</v>
@@ -9653,13 +9788,13 @@
         <v>39</v>
       </c>
       <c r="E328" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F328" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G328" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H328">
         <v>600</v>
@@ -9682,13 +9817,13 @@
         <v>46</v>
       </c>
       <c r="E329" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F329" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G329" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H329">
         <v>600</v>
@@ -9708,10 +9843,10 @@
         <v>45210.47569444445</v>
       </c>
       <c r="D330" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E330" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G330" t="s">
         <v>8</v>
@@ -9734,16 +9869,16 @@
         <v>45210.47569444445</v>
       </c>
       <c r="D331" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="E331" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F331" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G331" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H331">
         <v>600</v>
@@ -9763,13 +9898,13 @@
         <v>45210.47569444445</v>
       </c>
       <c r="D332" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E332" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F332" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H332">
         <v>600</v>
@@ -9789,13 +9924,13 @@
         <v>45210.47569444445</v>
       </c>
       <c r="D333" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E333" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F333" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H333">
         <v>600</v>
@@ -9815,10 +9950,10 @@
         <v>45253.00048611111</v>
       </c>
       <c r="D334" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G334" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H334">
         <v>600</v>
@@ -9838,13 +9973,13 @@
         <v>118</v>
       </c>
       <c r="E335" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F335" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G335" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H335">
         <v>600</v>
@@ -9864,16 +9999,16 @@
         <v>45253.39375</v>
       </c>
       <c r="D336" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E336" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F336" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G336" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H336">
         <v>600</v>
@@ -9893,16 +10028,16 @@
         <v>45253.39375</v>
       </c>
       <c r="D337" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E337" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F337" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G337" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H337">
         <v>600</v>
@@ -9922,10 +10057,10 @@
         <v>45253.39375</v>
       </c>
       <c r="D338" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E338" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G338" t="s">
         <v>8</v>
@@ -9948,16 +10083,16 @@
         <v>45253.39375</v>
       </c>
       <c r="D339" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="E339" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F339" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G339" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H339">
         <v>600</v>
@@ -9977,13 +10112,13 @@
         <v>45253.39375</v>
       </c>
       <c r="D340" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E340" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F340" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H340">
         <v>600</v>
@@ -10003,13 +10138,13 @@
         <v>45253.39375</v>
       </c>
       <c r="D341" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E341" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F341" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H341">
         <v>600</v>
@@ -10029,10 +10164,10 @@
         <v>45280.00048611111</v>
       </c>
       <c r="D342" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G342" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="H342">
         <v>600</v>
@@ -10052,13 +10187,13 @@
         <v>122</v>
       </c>
       <c r="E343" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F343" t="s">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="G343" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H343">
         <v>600</v>
@@ -10081,13 +10216,13 @@
         <v>39</v>
       </c>
       <c r="E344" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F344" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="G344" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="H344">
         <v>600</v>
@@ -10107,16 +10242,16 @@
         <v>45280.44652777778</v>
       </c>
       <c r="D345" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E345" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F345" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="G345" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="H345">
         <v>600</v>
@@ -10136,10 +10271,10 @@
         <v>45280.44652777778</v>
       </c>
       <c r="D346" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E346" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="G346" t="s">
         <v>8</v>
@@ -10165,13 +10300,13 @@
         <v>109</v>
       </c>
       <c r="E347" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F347" t="s">
-        <v>303</v>
+        <v>347</v>
       </c>
       <c r="G347" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="H347">
         <v>600</v>
@@ -10191,13 +10326,13 @@
         <v>45280.44652777778</v>
       </c>
       <c r="D348" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E348" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F348" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="H348">
         <v>600</v>
@@ -10217,19 +10352,1731 @@
         <v>45280.44652777778</v>
       </c>
       <c r="D349" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E349" t="s">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="F349" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="H349">
         <v>600</v>
       </c>
       <c r="I349">
         <v>8.1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>16</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D350" t="s">
+        <v>295</v>
+      </c>
+      <c r="G350" t="s">
+        <v>353</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>10</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45308.42291666667</v>
+      </c>
+      <c r="D351" t="s">
+        <v>296</v>
+      </c>
+      <c r="E351" t="s">
+        <v>336</v>
+      </c>
+      <c r="F351" t="s">
+        <v>346</v>
+      </c>
+      <c r="G351" t="s">
+        <v>349</v>
+      </c>
+      <c r="H351">
+        <v>500</v>
+      </c>
+      <c r="I351">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45308.42291666667</v>
+      </c>
+      <c r="D352" t="s">
+        <v>297</v>
+      </c>
+      <c r="E352" t="s">
+        <v>336</v>
+      </c>
+      <c r="F352" t="s">
+        <v>338</v>
+      </c>
+      <c r="G352" t="s">
+        <v>350</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+      <c r="I352">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>12</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45308.42291666667</v>
+      </c>
+      <c r="D353" t="s">
+        <v>298</v>
+      </c>
+      <c r="E353" t="s">
+        <v>336</v>
+      </c>
+      <c r="F353" t="s">
+        <v>339</v>
+      </c>
+      <c r="G353" t="s">
+        <v>351</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45308.42291666667</v>
+      </c>
+      <c r="D354" t="s">
+        <v>299</v>
+      </c>
+      <c r="E354" t="s">
+        <v>336</v>
+      </c>
+      <c r="G354" t="s">
+        <v>8</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>13</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45308.42291666667</v>
+      </c>
+      <c r="D355" t="s">
+        <v>300</v>
+      </c>
+      <c r="E355" t="s">
+        <v>336</v>
+      </c>
+      <c r="F355" t="s">
+        <v>347</v>
+      </c>
+      <c r="G355" t="s">
+        <v>352</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>14</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45308.42291666667</v>
+      </c>
+      <c r="D356" t="s">
+        <v>301</v>
+      </c>
+      <c r="E356" t="s">
+        <v>336</v>
+      </c>
+      <c r="F356" t="s">
+        <v>344</v>
+      </c>
+      <c r="H356">
+        <v>500</v>
+      </c>
+      <c r="I356">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>15</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45308.42291666667</v>
+      </c>
+      <c r="D357" t="s">
+        <v>302</v>
+      </c>
+      <c r="E357" t="s">
+        <v>336</v>
+      </c>
+      <c r="F357" t="s">
+        <v>345</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+      <c r="I357">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>16</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D358" t="s">
+        <v>303</v>
+      </c>
+      <c r="G358" t="s">
+        <v>353</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>10</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45344.45347222222</v>
+      </c>
+      <c r="D359" t="s">
+        <v>164</v>
+      </c>
+      <c r="E359" t="s">
+        <v>336</v>
+      </c>
+      <c r="F359" t="s">
+        <v>346</v>
+      </c>
+      <c r="G359" t="s">
+        <v>349</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+      <c r="I359">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45344.45347222222</v>
+      </c>
+      <c r="D360" t="s">
+        <v>304</v>
+      </c>
+      <c r="E360" t="s">
+        <v>336</v>
+      </c>
+      <c r="F360" t="s">
+        <v>338</v>
+      </c>
+      <c r="G360" t="s">
+        <v>350</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+      <c r="I360">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>12</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45344.45347222222</v>
+      </c>
+      <c r="D361" t="s">
+        <v>305</v>
+      </c>
+      <c r="E361" t="s">
+        <v>336</v>
+      </c>
+      <c r="F361" t="s">
+        <v>339</v>
+      </c>
+      <c r="G361" t="s">
+        <v>351</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+      <c r="I361">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>8</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45344.45347222222</v>
+      </c>
+      <c r="D362" t="s">
+        <v>306</v>
+      </c>
+      <c r="E362" t="s">
+        <v>336</v>
+      </c>
+      <c r="G362" t="s">
+        <v>8</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>13</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45344.45347222222</v>
+      </c>
+      <c r="D363" t="s">
+        <v>244</v>
+      </c>
+      <c r="E363" t="s">
+        <v>336</v>
+      </c>
+      <c r="F363" t="s">
+        <v>347</v>
+      </c>
+      <c r="G363" t="s">
+        <v>352</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>14</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45344.45347222222</v>
+      </c>
+      <c r="D364" t="s">
+        <v>307</v>
+      </c>
+      <c r="E364" t="s">
+        <v>336</v>
+      </c>
+      <c r="F364" t="s">
+        <v>344</v>
+      </c>
+      <c r="H364">
+        <v>500</v>
+      </c>
+      <c r="I364">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>15</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45344.45347222222</v>
+      </c>
+      <c r="D365" t="s">
+        <v>308</v>
+      </c>
+      <c r="E365" t="s">
+        <v>336</v>
+      </c>
+      <c r="F365" t="s">
+        <v>345</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+      <c r="I365">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>16</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D366" t="s">
+        <v>309</v>
+      </c>
+      <c r="G366" t="s">
+        <v>353</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45363.40138888889</v>
+      </c>
+      <c r="D367" t="s">
+        <v>310</v>
+      </c>
+      <c r="E367" t="s">
+        <v>336</v>
+      </c>
+      <c r="F367" t="s">
+        <v>346</v>
+      </c>
+      <c r="G367" t="s">
+        <v>349</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>11</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45363.40138888889</v>
+      </c>
+      <c r="D368" t="s">
+        <v>304</v>
+      </c>
+      <c r="E368" t="s">
+        <v>336</v>
+      </c>
+      <c r="F368" t="s">
+        <v>338</v>
+      </c>
+      <c r="G368" t="s">
+        <v>350</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+      <c r="I368">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>12</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45363.40138888889</v>
+      </c>
+      <c r="D369" t="s">
+        <v>311</v>
+      </c>
+      <c r="E369" t="s">
+        <v>336</v>
+      </c>
+      <c r="F369" t="s">
+        <v>339</v>
+      </c>
+      <c r="G369" t="s">
+        <v>351</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45363.40138888889</v>
+      </c>
+      <c r="D370" t="s">
+        <v>312</v>
+      </c>
+      <c r="E370" t="s">
+        <v>336</v>
+      </c>
+      <c r="G370" t="s">
+        <v>8</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>13</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45363.40138888889</v>
+      </c>
+      <c r="D371" t="s">
+        <v>244</v>
+      </c>
+      <c r="E371" t="s">
+        <v>336</v>
+      </c>
+      <c r="F371" t="s">
+        <v>347</v>
+      </c>
+      <c r="G371" t="s">
+        <v>352</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>14</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45363.40138888889</v>
+      </c>
+      <c r="D372" t="s">
+        <v>313</v>
+      </c>
+      <c r="E372" t="s">
+        <v>336</v>
+      </c>
+      <c r="F372" t="s">
+        <v>344</v>
+      </c>
+      <c r="H372">
+        <v>500</v>
+      </c>
+      <c r="I372">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>15</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45363.40138888889</v>
+      </c>
+      <c r="D373" t="s">
+        <v>314</v>
+      </c>
+      <c r="E373" t="s">
+        <v>336</v>
+      </c>
+      <c r="F373" t="s">
+        <v>345</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+      <c r="I373">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>16</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D374" t="s">
+        <v>128</v>
+      </c>
+      <c r="G374" t="s">
+        <v>353</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45398.43680555555</v>
+      </c>
+      <c r="D375" t="s">
+        <v>315</v>
+      </c>
+      <c r="E375" t="s">
+        <v>336</v>
+      </c>
+      <c r="F375" t="s">
+        <v>346</v>
+      </c>
+      <c r="G375" t="s">
+        <v>349</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45398.43680555555</v>
+      </c>
+      <c r="D376" t="s">
+        <v>102</v>
+      </c>
+      <c r="E376" t="s">
+        <v>336</v>
+      </c>
+      <c r="F376" t="s">
+        <v>338</v>
+      </c>
+      <c r="G376" t="s">
+        <v>350</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+      <c r="I376">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>12</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45398.43680555555</v>
+      </c>
+      <c r="D377" t="s">
+        <v>316</v>
+      </c>
+      <c r="E377" t="s">
+        <v>336</v>
+      </c>
+      <c r="F377" t="s">
+        <v>339</v>
+      </c>
+      <c r="G377" t="s">
+        <v>351</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+      <c r="I377">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>8</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45398.43680555555</v>
+      </c>
+      <c r="D378" t="s">
+        <v>306</v>
+      </c>
+      <c r="E378" t="s">
+        <v>336</v>
+      </c>
+      <c r="G378" t="s">
+        <v>8</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+      <c r="I378">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>13</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45398.43680555555</v>
+      </c>
+      <c r="D379" t="s">
+        <v>244</v>
+      </c>
+      <c r="E379" t="s">
+        <v>336</v>
+      </c>
+      <c r="F379" t="s">
+        <v>347</v>
+      </c>
+      <c r="G379" t="s">
+        <v>352</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+      <c r="I379">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>14</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45398.43680555555</v>
+      </c>
+      <c r="D380" t="s">
+        <v>317</v>
+      </c>
+      <c r="E380" t="s">
+        <v>336</v>
+      </c>
+      <c r="F380" t="s">
+        <v>344</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+      <c r="I380">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>15</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45398.43680555555</v>
+      </c>
+      <c r="D381" t="s">
+        <v>318</v>
+      </c>
+      <c r="E381" t="s">
+        <v>336</v>
+      </c>
+      <c r="F381" t="s">
+        <v>345</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+      <c r="I381">
+        <v>8.06</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>16</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D382" t="s">
+        <v>128</v>
+      </c>
+      <c r="G382" t="s">
+        <v>353</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45511.40972222222</v>
+      </c>
+      <c r="D383" t="s">
+        <v>274</v>
+      </c>
+      <c r="E383" t="s">
+        <v>336</v>
+      </c>
+      <c r="F383" t="s">
+        <v>348</v>
+      </c>
+      <c r="G383" t="s">
+        <v>349</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+      <c r="I383">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>11</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45511.40972222222</v>
+      </c>
+      <c r="D384" t="s">
+        <v>319</v>
+      </c>
+      <c r="E384" t="s">
+        <v>336</v>
+      </c>
+      <c r="F384" t="s">
+        <v>338</v>
+      </c>
+      <c r="G384" t="s">
+        <v>350</v>
+      </c>
+      <c r="H384">
+        <v>600</v>
+      </c>
+      <c r="I384">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>12</v>
+      </c>
+      <c r="C385" s="2">
+        <v>45511.40972222222</v>
+      </c>
+      <c r="D385" t="s">
+        <v>266</v>
+      </c>
+      <c r="E385" t="s">
+        <v>336</v>
+      </c>
+      <c r="F385" t="s">
+        <v>339</v>
+      </c>
+      <c r="G385" t="s">
+        <v>351</v>
+      </c>
+      <c r="H385">
+        <v>600</v>
+      </c>
+      <c r="I385">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s">
+        <v>8</v>
+      </c>
+      <c r="C386" s="2">
+        <v>45511.40972222222</v>
+      </c>
+      <c r="D386" t="s">
+        <v>320</v>
+      </c>
+      <c r="E386" t="s">
+        <v>336</v>
+      </c>
+      <c r="G386" t="s">
+        <v>8</v>
+      </c>
+      <c r="H386">
+        <v>600</v>
+      </c>
+      <c r="I386">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" t="s">
+        <v>13</v>
+      </c>
+      <c r="C387" s="2">
+        <v>45511.40972222222</v>
+      </c>
+      <c r="D387" t="s">
+        <v>321</v>
+      </c>
+      <c r="E387" t="s">
+        <v>336</v>
+      </c>
+      <c r="F387" t="s">
+        <v>347</v>
+      </c>
+      <c r="G387" t="s">
+        <v>352</v>
+      </c>
+      <c r="H387">
+        <v>600</v>
+      </c>
+      <c r="I387">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" t="s">
+        <v>14</v>
+      </c>
+      <c r="C388" s="2">
+        <v>45511.40972222222</v>
+      </c>
+      <c r="D388" t="s">
+        <v>322</v>
+      </c>
+      <c r="E388" t="s">
+        <v>336</v>
+      </c>
+      <c r="F388" t="s">
+        <v>344</v>
+      </c>
+      <c r="H388">
+        <v>600</v>
+      </c>
+      <c r="I388">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>15</v>
+      </c>
+      <c r="C389" s="2">
+        <v>45511.40972222222</v>
+      </c>
+      <c r="D389" t="s">
+        <v>323</v>
+      </c>
+      <c r="E389" t="s">
+        <v>336</v>
+      </c>
+      <c r="F389" t="s">
+        <v>345</v>
+      </c>
+      <c r="H389">
+        <v>600</v>
+      </c>
+      <c r="I389">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
+        <v>16</v>
+      </c>
+      <c r="C390" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D390" t="s">
+        <v>128</v>
+      </c>
+      <c r="G390" t="s">
+        <v>353</v>
+      </c>
+      <c r="H390">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>10</v>
+      </c>
+      <c r="C391" s="2">
+        <v>45558.42430555556</v>
+      </c>
+      <c r="D391" t="s">
+        <v>55</v>
+      </c>
+      <c r="E391" t="s">
+        <v>336</v>
+      </c>
+      <c r="F391" t="s">
+        <v>346</v>
+      </c>
+      <c r="G391" t="s">
+        <v>349</v>
+      </c>
+      <c r="H391">
+        <v>600</v>
+      </c>
+      <c r="I391">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>11</v>
+      </c>
+      <c r="C392" s="2">
+        <v>45558.42430555556</v>
+      </c>
+      <c r="D392" t="s">
+        <v>324</v>
+      </c>
+      <c r="E392" t="s">
+        <v>336</v>
+      </c>
+      <c r="F392" t="s">
+        <v>338</v>
+      </c>
+      <c r="G392" t="s">
+        <v>350</v>
+      </c>
+      <c r="H392">
+        <v>600</v>
+      </c>
+      <c r="I392">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" t="s">
+        <v>12</v>
+      </c>
+      <c r="C393" s="2">
+        <v>45558.42430555556</v>
+      </c>
+      <c r="D393" t="s">
+        <v>325</v>
+      </c>
+      <c r="E393" t="s">
+        <v>336</v>
+      </c>
+      <c r="F393" t="s">
+        <v>339</v>
+      </c>
+      <c r="G393" t="s">
+        <v>351</v>
+      </c>
+      <c r="H393">
+        <v>600</v>
+      </c>
+      <c r="I393">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" t="s">
+        <v>8</v>
+      </c>
+      <c r="C394" s="2">
+        <v>45558.42430555556</v>
+      </c>
+      <c r="D394" t="s">
+        <v>326</v>
+      </c>
+      <c r="E394" t="s">
+        <v>336</v>
+      </c>
+      <c r="G394" t="s">
+        <v>8</v>
+      </c>
+      <c r="H394">
+        <v>600</v>
+      </c>
+      <c r="I394">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>13</v>
+      </c>
+      <c r="C395" s="2">
+        <v>45558.42430555556</v>
+      </c>
+      <c r="D395" t="s">
+        <v>327</v>
+      </c>
+      <c r="E395" t="s">
+        <v>336</v>
+      </c>
+      <c r="F395" t="s">
+        <v>347</v>
+      </c>
+      <c r="G395" t="s">
+        <v>352</v>
+      </c>
+      <c r="H395">
+        <v>600</v>
+      </c>
+      <c r="I395">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>14</v>
+      </c>
+      <c r="C396" s="2">
+        <v>45558.42430555556</v>
+      </c>
+      <c r="D396" t="s">
+        <v>85</v>
+      </c>
+      <c r="E396" t="s">
+        <v>336</v>
+      </c>
+      <c r="F396" t="s">
+        <v>344</v>
+      </c>
+      <c r="H396">
+        <v>600</v>
+      </c>
+      <c r="I396">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9">
+      <c r="A397" t="s">
+        <v>9</v>
+      </c>
+      <c r="B397" t="s">
+        <v>15</v>
+      </c>
+      <c r="C397" s="2">
+        <v>45558.42430555556</v>
+      </c>
+      <c r="D397" t="s">
+        <v>328</v>
+      </c>
+      <c r="E397" t="s">
+        <v>336</v>
+      </c>
+      <c r="F397" t="s">
+        <v>345</v>
+      </c>
+      <c r="H397">
+        <v>600</v>
+      </c>
+      <c r="I397">
+        <v>8.32</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9">
+      <c r="A398" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" t="s">
+        <v>16</v>
+      </c>
+      <c r="C398" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D398" t="s">
+        <v>128</v>
+      </c>
+      <c r="G398" t="s">
+        <v>353</v>
+      </c>
+      <c r="H398">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9">
+      <c r="A399" t="s">
+        <v>9</v>
+      </c>
+      <c r="B399" t="s">
+        <v>10</v>
+      </c>
+      <c r="C399" s="2">
+        <v>45587.425</v>
+      </c>
+      <c r="D399" t="s">
+        <v>329</v>
+      </c>
+      <c r="E399" t="s">
+        <v>336</v>
+      </c>
+      <c r="F399" t="s">
+        <v>346</v>
+      </c>
+      <c r="G399" t="s">
+        <v>349</v>
+      </c>
+      <c r="H399">
+        <v>600</v>
+      </c>
+      <c r="I399">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9">
+      <c r="A400" t="s">
+        <v>9</v>
+      </c>
+      <c r="B400" t="s">
+        <v>11</v>
+      </c>
+      <c r="C400" s="2">
+        <v>45587.425</v>
+      </c>
+      <c r="D400" t="s">
+        <v>39</v>
+      </c>
+      <c r="E400" t="s">
+        <v>336</v>
+      </c>
+      <c r="F400" t="s">
+        <v>338</v>
+      </c>
+      <c r="G400" t="s">
+        <v>350</v>
+      </c>
+      <c r="H400">
+        <v>600</v>
+      </c>
+      <c r="I400">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9">
+      <c r="A401" t="s">
+        <v>9</v>
+      </c>
+      <c r="B401" t="s">
+        <v>12</v>
+      </c>
+      <c r="C401" s="2">
+        <v>45587.425</v>
+      </c>
+      <c r="D401" t="s">
+        <v>119</v>
+      </c>
+      <c r="E401" t="s">
+        <v>336</v>
+      </c>
+      <c r="F401" t="s">
+        <v>339</v>
+      </c>
+      <c r="G401" t="s">
+        <v>351</v>
+      </c>
+      <c r="H401">
+        <v>600</v>
+      </c>
+      <c r="I401">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9">
+      <c r="A402" t="s">
+        <v>9</v>
+      </c>
+      <c r="B402" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402" s="2">
+        <v>45587.425</v>
+      </c>
+      <c r="D402" t="s">
+        <v>330</v>
+      </c>
+      <c r="E402" t="s">
+        <v>336</v>
+      </c>
+      <c r="G402" t="s">
+        <v>8</v>
+      </c>
+      <c r="H402">
+        <v>600</v>
+      </c>
+      <c r="I402">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9">
+      <c r="A403" t="s">
+        <v>9</v>
+      </c>
+      <c r="B403" t="s">
+        <v>13</v>
+      </c>
+      <c r="C403" s="2">
+        <v>45587.425</v>
+      </c>
+      <c r="D403" t="s">
+        <v>32</v>
+      </c>
+      <c r="E403" t="s">
+        <v>336</v>
+      </c>
+      <c r="F403" t="s">
+        <v>347</v>
+      </c>
+      <c r="G403" t="s">
+        <v>352</v>
+      </c>
+      <c r="H403">
+        <v>600</v>
+      </c>
+      <c r="I403">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9">
+      <c r="A404" t="s">
+        <v>9</v>
+      </c>
+      <c r="B404" t="s">
+        <v>14</v>
+      </c>
+      <c r="C404" s="2">
+        <v>45587.425</v>
+      </c>
+      <c r="D404" t="s">
+        <v>331</v>
+      </c>
+      <c r="E404" t="s">
+        <v>336</v>
+      </c>
+      <c r="F404" t="s">
+        <v>344</v>
+      </c>
+      <c r="H404">
+        <v>600</v>
+      </c>
+      <c r="I404">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9">
+      <c r="A405" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405" t="s">
+        <v>15</v>
+      </c>
+      <c r="C405" s="2">
+        <v>45587.425</v>
+      </c>
+      <c r="D405" t="s">
+        <v>332</v>
+      </c>
+      <c r="E405" t="s">
+        <v>336</v>
+      </c>
+      <c r="F405" t="s">
+        <v>345</v>
+      </c>
+      <c r="H405">
+        <v>600</v>
+      </c>
+      <c r="I405">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9">
+      <c r="A406" t="s">
+        <v>9</v>
+      </c>
+      <c r="B406" t="s">
+        <v>16</v>
+      </c>
+      <c r="C406" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D406" t="s">
+        <v>128</v>
+      </c>
+      <c r="G406" t="s">
+        <v>353</v>
+      </c>
+      <c r="H406">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9">
+      <c r="A407" t="s">
+        <v>9</v>
+      </c>
+      <c r="B407" t="s">
+        <v>10</v>
+      </c>
+      <c r="C407" s="2">
+        <v>45636.4125</v>
+      </c>
+      <c r="D407" t="s">
+        <v>84</v>
+      </c>
+      <c r="E407" t="s">
+        <v>336</v>
+      </c>
+      <c r="F407" t="s">
+        <v>346</v>
+      </c>
+      <c r="G407" t="s">
+        <v>349</v>
+      </c>
+      <c r="H407">
+        <v>600</v>
+      </c>
+      <c r="I407">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9">
+      <c r="A408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B408" t="s">
+        <v>11</v>
+      </c>
+      <c r="C408" s="2">
+        <v>45636.4125</v>
+      </c>
+      <c r="D408" t="s">
+        <v>333</v>
+      </c>
+      <c r="E408" t="s">
+        <v>336</v>
+      </c>
+      <c r="F408" t="s">
+        <v>338</v>
+      </c>
+      <c r="G408" t="s">
+        <v>350</v>
+      </c>
+      <c r="H408">
+        <v>600</v>
+      </c>
+      <c r="I408">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9">
+      <c r="A409" t="s">
+        <v>9</v>
+      </c>
+      <c r="B409" t="s">
+        <v>12</v>
+      </c>
+      <c r="C409" s="2">
+        <v>45636.4125</v>
+      </c>
+      <c r="D409" t="s">
+        <v>119</v>
+      </c>
+      <c r="E409" t="s">
+        <v>336</v>
+      </c>
+      <c r="F409" t="s">
+        <v>339</v>
+      </c>
+      <c r="G409" t="s">
+        <v>351</v>
+      </c>
+      <c r="H409">
+        <v>600</v>
+      </c>
+      <c r="I409">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9">
+      <c r="A410" t="s">
+        <v>9</v>
+      </c>
+      <c r="B410" t="s">
+        <v>8</v>
+      </c>
+      <c r="C410" s="2">
+        <v>45636.4125</v>
+      </c>
+      <c r="D410" t="s">
+        <v>334</v>
+      </c>
+      <c r="E410" t="s">
+        <v>336</v>
+      </c>
+      <c r="G410" t="s">
+        <v>8</v>
+      </c>
+      <c r="H410">
+        <v>600</v>
+      </c>
+      <c r="I410">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9">
+      <c r="A411" t="s">
+        <v>9</v>
+      </c>
+      <c r="B411" t="s">
+        <v>13</v>
+      </c>
+      <c r="C411" s="2">
+        <v>45636.4125</v>
+      </c>
+      <c r="D411" t="s">
+        <v>244</v>
+      </c>
+      <c r="E411" t="s">
+        <v>336</v>
+      </c>
+      <c r="F411" t="s">
+        <v>347</v>
+      </c>
+      <c r="G411" t="s">
+        <v>352</v>
+      </c>
+      <c r="H411">
+        <v>600</v>
+      </c>
+      <c r="I411">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9">
+      <c r="A412" t="s">
+        <v>9</v>
+      </c>
+      <c r="B412" t="s">
+        <v>14</v>
+      </c>
+      <c r="C412" s="2">
+        <v>45636.4125</v>
+      </c>
+      <c r="D412" t="s">
+        <v>58</v>
+      </c>
+      <c r="E412" t="s">
+        <v>336</v>
+      </c>
+      <c r="F412" t="s">
+        <v>344</v>
+      </c>
+      <c r="H412">
+        <v>600</v>
+      </c>
+      <c r="I412">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9">
+      <c r="A413" t="s">
+        <v>9</v>
+      </c>
+      <c r="B413" t="s">
+        <v>15</v>
+      </c>
+      <c r="C413" s="2">
+        <v>45636.4125</v>
+      </c>
+      <c r="D413" t="s">
+        <v>335</v>
+      </c>
+      <c r="E413" t="s">
+        <v>336</v>
+      </c>
+      <c r="F413" t="s">
+        <v>345</v>
+      </c>
+      <c r="H413">
+        <v>600</v>
+      </c>
+      <c r="I413">
+        <v>8.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeKoputara_4fb59b52cf.xlsx
+++ b/data/Lakes/LakeKoputara_4fb59b52cf.xlsx
@@ -64,7 +64,7 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>0.0000</t>
